--- a/data/trans_dic/P12A-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>19,6%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>21,03%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 18,85</t>
+          <t>11,61; 18,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 17,28</t>
+          <t>11,09; 17,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,9</t>
+          <t>10,92; 17,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,85</t>
+          <t>11,65; 18,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,46</t>
+          <t>19,14; 25,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 19,2</t>
+          <t>20,14; 26,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,46</t>
+          <t>11,29; 16,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,67</t>
+          <t>12,42; 18,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 16,5</t>
+          <t>11,58; 16,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,24</t>
+          <t>14,53; 21,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,15</t>
+          <t>17,05; 23,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 23,4</t>
+          <t>18,34; 23,9</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 16,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 17,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 15,88</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13,99; 18,76</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 23,23</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 24,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>18,6%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>19,9%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>19,22%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 15,84</t>
+          <t>10,38; 16,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 16,68</t>
+          <t>10,79; 16,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 18,43</t>
+          <t>11,68; 18,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 25,32</t>
+          <t>10,73; 17,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,42</t>
+          <t>13,57; 25,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,15</t>
+          <t>14,17; 24,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,8</t>
+          <t>15,08; 22,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 27,19</t>
+          <t>11,71; 17,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,82</t>
+          <t>14,44; 21,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,96</t>
+          <t>16,93; 24,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,21</t>
+          <t>14,09; 27,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,42; 23,85</t>
+          <t>11,68; 21,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 18,35</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 16,02</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 18,56</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 20,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 23,96</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 20,97</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,71%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,11%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>21,26%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 19,74</t>
+          <t>5,51; 17,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 30,38</t>
+          <t>15,24; 33,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,65; 36,21</t>
+          <t>18,81; 38,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>11,04; 38,96</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,57; 22,5</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 22,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 23,04</t>
+          <t>9,36; 22,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>11,39; 22,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 23,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 22,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 18,13</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 23,77</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>16,02; 27,48</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 17,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 24,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 29,44</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 27,11</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>19,66%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,98</t>
+          <t>11,28; 15,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 16,83</t>
+          <t>12,71; 17,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 18,37</t>
+          <t>13,52; 18,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,67</t>
+          <t>12,62; 18,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,24</t>
+          <t>18,75; 24,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,32</t>
+          <t>19,54; 25,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,39</t>
+          <t>13,39; 17,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,42</t>
+          <t>13,11; 16,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,91</t>
+          <t>13,66; 17,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 16,26</t>
+          <t>16,12; 21,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 17,11</t>
+          <t>17,02; 22,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,57</t>
+          <t>17,58; 22,66</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 16,27</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,53; 16,39</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,27</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 18,67</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 22,44</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 22,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>237369</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>228641</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>223209</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>241414</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51648</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52741</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>248600</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>277279</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>253643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>315880</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46621</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>49893</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>485968</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>505920</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>476852</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>557294</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>98269</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>102634</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>191941; 310961</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>182493; 280554</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>179173; 283206</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>190653; 296082</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43927; 59462</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45857; 60650</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>204254; 305649</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>227114; 332653</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>210604; 299065</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>260415; 382379</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40553; 54827</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43193; 56291</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>412284; 568150</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>446021; 595049</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>417017; 549169</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>479671; 643222</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>88598; 108566</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92476; 113687</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>177918</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>185874</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>203748</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>188623</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13402</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13734</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>255403</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>198771</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>241445</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>288954</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13046</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10624</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>433321</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>384645</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>445193</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>477577</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>24357</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>142687; 224825</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>148821; 230732</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>161221; 254722</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>147208; 243645</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9774; 18028</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10309; 17874</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>209401; 307315</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>160861; 241664</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>199298; 294357</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236038; 348434</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9239; 17723</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7760; 14224</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>374284; 507092</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>332791; 441148</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>387644; 512273</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>411439; 557622</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21144; 32964</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>19673; 29184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44063</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>90334</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>112140</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86825</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61541</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66105</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69147</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60931</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>105604</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>156439</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>181287</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>147756</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23071; 73858</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63790; 141587</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79545; 164575</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46008; 162444</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38253; 91166</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46634; 93677</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46113; 95405</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36530; 93952</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>71564; 145576</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>116556; 204180</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>141585; 245729</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>103359; 224708</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>459349</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>504849</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>539097</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>516862</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>65050</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66475</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>565544</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>542155</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>564235</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>665765</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59667</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60517</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1024893</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1047004</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1103332</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1182627</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>124717</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>126992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>388732; 539718</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>437569; 585828</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>465618; 629171</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>432361; 618334</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56523; 74696</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58721; 76698</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>483058; 634961</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>473703; 608629</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>493384; 643744</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>580152; 762640</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>51637; 67934</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53089; 68427</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>930118; 1147269</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>954609; 1156599</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1008440; 1218532</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1062451; 1311161</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>113576; 135779</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>115940; 138147</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
